--- a/Финансовая математика/ЛР2_Гончаров_141-ПИо.xlsx
+++ b/Финансовая математика/ЛР2_Гончаров_141-ПИо.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgorG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work 3\works\Финансовая математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задачи 1-10" sheetId="1" r:id="rId1"/>
     <sheet name="ШАБЛОН" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -933,7 +933,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
